--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H2">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I2">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J2">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N2">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O2">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P2">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q2">
-        <v>1519.729467282721</v>
+        <v>1.296443989661333</v>
       </c>
       <c r="R2">
-        <v>1519.729467282721</v>
+        <v>11.667995906952</v>
       </c>
       <c r="S2">
-        <v>0.8896069225005768</v>
+        <v>0.0006591496333171984</v>
       </c>
       <c r="T2">
-        <v>0.8896069225005768</v>
+        <v>0.0006591496333171982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H3">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I3">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J3">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N3">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P3">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q3">
-        <v>84.99224674998966</v>
+        <v>0.07798862863166667</v>
       </c>
       <c r="R3">
-        <v>84.99224674998966</v>
+        <v>0.701897657685</v>
       </c>
       <c r="S3">
-        <v>0.04975207278362394</v>
+        <v>3.965167517873482E-05</v>
       </c>
       <c r="T3">
-        <v>0.04975207278362394</v>
+        <v>3.965167517873482E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H4">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I4">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J4">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N4">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q4">
-        <v>48.57865149274978</v>
+        <v>0.05072578219566667</v>
       </c>
       <c r="R4">
-        <v>48.57865149274978</v>
+        <v>0.456532039761</v>
       </c>
       <c r="S4">
-        <v>0.02843657741990311</v>
+        <v>2.579045527661871E-05</v>
       </c>
       <c r="T4">
-        <v>0.02843657741990311</v>
+        <v>2.579045527661871E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>33.7600371175594</v>
+        <v>0.028147</v>
       </c>
       <c r="H5">
-        <v>33.7600371175594</v>
+        <v>0.084441</v>
       </c>
       <c r="I5">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173872</v>
       </c>
       <c r="J5">
-        <v>0.9761188306317162</v>
+        <v>0.0007347845853173871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N5">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q5">
-        <v>14.2187521437354</v>
+        <v>0.02004768198533333</v>
       </c>
       <c r="R5">
-        <v>14.2187521437354</v>
+        <v>0.180429137868</v>
       </c>
       <c r="S5">
-        <v>0.008323257927612305</v>
+        <v>1.01928215448353E-05</v>
       </c>
       <c r="T5">
-        <v>0.008323257927612305</v>
+        <v>1.01928215448353E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.825953909486833</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H6">
-        <v>0.825953909486833</v>
+        <v>110.924753</v>
       </c>
       <c r="I6">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="J6">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N6">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O6">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P6">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q6">
-        <v>37.18083870860533</v>
+        <v>1703.055735146646</v>
       </c>
       <c r="R6">
-        <v>37.18083870860533</v>
+        <v>15327.50161631981</v>
       </c>
       <c r="S6">
-        <v>0.02176461811896907</v>
+        <v>0.865882808893201</v>
       </c>
       <c r="T6">
-        <v>0.02176461811896907</v>
+        <v>0.8658828088932009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.825953909486833</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H7">
-        <v>0.825953909486833</v>
+        <v>110.924753</v>
       </c>
       <c r="I7">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="J7">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N7">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P7">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q7">
-        <v>2.079372076362766</v>
+        <v>102.4486844989561</v>
       </c>
       <c r="R7">
-        <v>2.079372076362766</v>
+        <v>922.0381604906049</v>
       </c>
       <c r="S7">
-        <v>0.001217205978702382</v>
+        <v>0.05208787526482858</v>
       </c>
       <c r="T7">
-        <v>0.001217205978702382</v>
+        <v>0.05208787526482857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.825953909486833</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H8">
-        <v>0.825953909486833</v>
+        <v>110.924753</v>
       </c>
       <c r="I8">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="J8">
-        <v>0.02388116936828374</v>
+        <v>0.9652396186039789</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N8">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q8">
-        <v>1.188497719309845</v>
+        <v>66.63522294603477</v>
       </c>
       <c r="R8">
-        <v>1.188497719309845</v>
+        <v>599.717006514313</v>
       </c>
       <c r="S8">
-        <v>0.0006957131655574414</v>
+        <v>0.03387927524918555</v>
       </c>
       <c r="T8">
-        <v>0.0006957131655574414</v>
+        <v>0.03387927524918555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>36.97491766666666</v>
+      </c>
+      <c r="H9">
+        <v>110.924753</v>
+      </c>
+      <c r="I9">
+        <v>0.9652396186039789</v>
+      </c>
+      <c r="J9">
+        <v>0.9652396186039789</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7122493333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.136748</v>
+      </c>
+      <c r="O9">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="P9">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="Q9">
+        <v>26.33536045813822</v>
+      </c>
+      <c r="R9">
+        <v>237.018244123244</v>
+      </c>
+      <c r="S9">
+        <v>0.01338965919676382</v>
+      </c>
+      <c r="T9">
+        <v>0.01338965919676382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.910201</v>
+      </c>
+      <c r="I10">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J10">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>46.05975733333333</v>
+      </c>
+      <c r="N10">
+        <v>138.179272</v>
+      </c>
+      <c r="O10">
+        <v>0.8970651351272991</v>
+      </c>
+      <c r="P10">
+        <v>0.897065135127299</v>
+      </c>
+      <c r="Q10">
+        <v>60.0343030615191</v>
+      </c>
+      <c r="R10">
+        <v>540.3087275536719</v>
+      </c>
+      <c r="S10">
+        <v>0.03052317660078092</v>
+      </c>
+      <c r="T10">
+        <v>0.03052317660078092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.825953909486833</v>
-      </c>
-      <c r="H9">
-        <v>0.825953909486833</v>
-      </c>
-      <c r="I9">
-        <v>0.02388116936828374</v>
-      </c>
-      <c r="J9">
-        <v>0.02388116936828374</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.421171105180447</v>
-      </c>
-      <c r="N9">
-        <v>0.421171105180447</v>
-      </c>
-      <c r="O9">
-        <v>0.008526890032667161</v>
-      </c>
-      <c r="P9">
-        <v>0.008526890032667161</v>
-      </c>
-      <c r="Q9">
-        <v>0.3478679208866803</v>
-      </c>
-      <c r="R9">
-        <v>0.3478679208866803</v>
-      </c>
-      <c r="S9">
-        <v>0.000203632105054855</v>
-      </c>
-      <c r="T9">
-        <v>0.000203632105054855</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.910201</v>
+      </c>
+      <c r="I11">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J11">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.770761666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.312284999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.05396367312415441</v>
+      </c>
+      <c r="P11">
+        <v>0.0539636731241544</v>
+      </c>
+      <c r="Q11">
+        <v>3.611411679920555</v>
+      </c>
+      <c r="R11">
+        <v>32.502705119285</v>
+      </c>
+      <c r="S11">
+        <v>0.001836146184147086</v>
+      </c>
+      <c r="T11">
+        <v>0.001836146184147085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.910201</v>
+      </c>
+      <c r="I12">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J12">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.802173666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.406521</v>
+      </c>
+      <c r="O12">
+        <v>0.03509934175535083</v>
+      </c>
+      <c r="P12">
+        <v>0.03509934175535083</v>
+      </c>
+      <c r="Q12">
+        <v>2.348953757857889</v>
+      </c>
+      <c r="R12">
+        <v>21.140583820721</v>
+      </c>
+      <c r="S12">
+        <v>0.001194276050888665</v>
+      </c>
+      <c r="T12">
+        <v>0.001194276050888665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.303400333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.910201</v>
+      </c>
+      <c r="I13">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="J13">
+        <v>0.03402559681070371</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7122493333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.136748</v>
+      </c>
+      <c r="O13">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="P13">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="Q13">
+        <v>0.928346018483111</v>
+      </c>
+      <c r="R13">
+        <v>8.355114166347999</v>
+      </c>
+      <c r="S13">
+        <v>0.0004719979748870397</v>
+      </c>
+      <c r="T13">
+        <v>0.0004719979748870396</v>
       </c>
     </row>
   </sheetData>
